--- a/TestData/JTPS-DEVQA/VATTypes.xlsx
+++ b/TestData/JTPS-DEVQA/VATTypes.xlsx
@@ -274,9 +274,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>btn_No</t>
-  </si>
-  <si>
     <t>elm_ErrorDescriptionrequired</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>btn_Cancel</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -322,9 +316,6 @@
     <t>elm_Confirmationdialog</t>
   </si>
   <si>
-    <t>btn_yes</t>
-  </si>
-  <si>
     <t>Aut</t>
   </si>
   <si>
@@ -334,9 +325,6 @@
     <t>allrows,value^Aut</t>
   </si>
   <si>
-    <t>English,French,Spanish</t>
-  </si>
-  <si>
     <t>Field_Name1</t>
   </si>
   <si>
@@ -359,6 +347,18 @@
   </si>
   <si>
     <t>pJTPS</t>
+  </si>
+  <si>
+    <t>English,French,Spanish,Russian</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>elm_Changessavedtothedatabase</t>
+  </si>
+  <si>
+    <t>aut</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -616,12 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -930,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E70" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81:M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +936,8 @@
     <col min="12" max="12" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="19"/>
     <col min="14" max="14" width="21.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -992,22 +987,22 @@
         <v>13</v>
       </c>
       <c r="P1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>9</v>
@@ -1027,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
@@ -1057,12 +1052,12 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
       <c r="X2" s="19"/>
@@ -1075,7 +1070,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
@@ -1095,17 +1090,19 @@
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="M3" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1133,10 +1130,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="15"/>
@@ -1163,15 +1160,16 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="M5" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1201,10 +1199,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="15"/>
@@ -1235,13 +1233,12 @@
         <v>63</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1269,10 +1266,10 @@
       <c r="K8" s="11"/>
       <c r="L8" s="1"/>
       <c r="M8" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>37</v>
@@ -1285,7 +1282,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
@@ -1301,18 +1298,18 @@
         <v>21</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>37</v>
@@ -1347,13 +1344,12 @@
         <v>63</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1381,13 +1377,13 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>44</v>
@@ -1419,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="16"/>
@@ -1453,10 +1449,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>37</v>
@@ -1490,13 +1486,13 @@
         <v>51</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>50</v>
@@ -1528,13 +1524,13 @@
         <v>51</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P15" s="24" t="s">
         <v>53</v>
@@ -1566,13 +1562,13 @@
         <v>51</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>54</v>
@@ -1604,13 +1600,13 @@
         <v>51</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>55</v>
@@ -1639,16 +1635,16 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P18" s="24" t="s">
         <v>55</v>
@@ -1680,13 +1676,13 @@
         <v>51</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>58</v>
@@ -1718,13 +1714,13 @@
         <v>51</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>59</v>
@@ -1754,13 +1750,13 @@
         <v>51</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>60</v>
@@ -1789,16 +1785,16 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="25" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P22" s="24" t="s">
         <v>55</v>
@@ -1830,10 +1826,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="16"/>
@@ -1864,13 +1860,13 @@
         <v>62</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P24" s="24" t="s">
         <v>55</v>
@@ -1902,13 +1898,13 @@
         <v>63</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O25" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P25" s="32" t="s">
         <v>54</v>
@@ -1940,13 +1936,13 @@
         <v>66</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P26" s="32" t="s">
         <v>65</v>
@@ -1974,10 +1970,10 @@
       <c r="K27" s="11"/>
       <c r="L27" s="25"/>
       <c r="M27" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O27" s="30"/>
       <c r="P27" s="32"/>
@@ -2008,13 +2004,13 @@
         <v>63</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>54</v>
@@ -2046,13 +2042,13 @@
         <v>71</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>70</v>
@@ -2081,16 +2077,16 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>72</v>
@@ -2122,13 +2118,13 @@
         <v>71</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>74</v>
@@ -2160,13 +2156,13 @@
         <v>63</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>50</v>
@@ -2181,7 +2177,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>19</v>
@@ -2195,20 +2191,18 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="25" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="M33" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O33" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="N33" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>72</v>
-      </c>
+      <c r="P33" s="15"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
@@ -2219,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>19</v>
@@ -2228,24 +2222,24 @@
         <v>21</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="25" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -2266,21 +2260,25 @@
         <v>21</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="35">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O35" s="14"/>
-      <c r="P35" s="34"/>
+        <v>110</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -2295,7 +2293,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>19</v>
@@ -2308,20 +2306,20 @@
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
-      <c r="L36" s="25" t="s">
-        <v>63</v>
+      <c r="L36" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O36" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="P36" s="34" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -2345,16 +2343,16 @@
       <c r="I37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="1" t="s">
-        <v>98</v>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O37" s="11" t="s">
         <v>37</v>
@@ -2363,7 +2361,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="22"/>
@@ -2372,7 +2370,7 @@
         <v>19</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>19</v>
@@ -2381,38 +2379,38 @@
         <v>21</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="21" t="s">
-        <v>47</v>
+      <c r="L38" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>19</v>
@@ -2421,24 +2419,24 @@
         <v>21</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="10" t="s">
-        <v>104</v>
+      <c r="L39" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -2450,7 +2448,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>19</v>
@@ -2463,20 +2461,20 @@
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="25" t="s">
-        <v>63</v>
+      <c r="L40" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -2505,13 +2503,13 @@
         <v>81</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>70</v>
@@ -2526,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>19</v>
@@ -2540,19 +2538,19 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="25" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -2564,7 +2562,7 @@
         <v>19</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>19</v>
@@ -2578,22 +2576,22 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="25" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="22"/>
@@ -2602,7 +2600,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>19</v>
@@ -2611,27 +2609,27 @@
         <v>21</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="25" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="22"/>
@@ -2640,7 +2638,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>19</v>
@@ -2649,24 +2647,24 @@
         <v>21</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="25" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -2678,7 +2676,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>19</v>
@@ -2689,22 +2687,22 @@
       <c r="I46" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="25" t="s">
-        <v>63</v>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O46" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="P46" s="15" t="s">
-        <v>44</v>
+        <v>110</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -2716,7 +2714,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>19</v>
@@ -2729,20 +2727,20 @@
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
-      <c r="L47" s="10" t="s">
-        <v>63</v>
+      <c r="L47" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="P47" s="15" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="P47" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -2754,7 +2752,7 @@
         <v>19</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>19</v>
@@ -2765,22 +2763,22 @@
       <c r="I48" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="1" t="s">
-        <v>98</v>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O48" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P48" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2792,7 +2790,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>19</v>
@@ -2805,20 +2803,20 @@
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
-      <c r="L49" s="21" t="s">
-        <v>47</v>
+      <c r="L49" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O49" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P49" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2830,7 +2828,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>19</v>
@@ -2847,19 +2845,19 @@
         <v>63</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="22"/>
@@ -2868,7 +2866,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>19</v>
@@ -2877,27 +2875,27 @@
         <v>21</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="22"/>
@@ -2906,7 +2904,7 @@
         <v>19</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>19</v>
@@ -2915,27 +2913,27 @@
         <v>21</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
-      <c r="L52" s="25" t="s">
-        <v>63</v>
+      <c r="L52" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="22"/>
@@ -2944,7 +2942,7 @@
         <v>19</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>19</v>
@@ -2953,27 +2951,27 @@
         <v>21</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-      <c r="L53" s="10" t="s">
-        <v>51</v>
+      <c r="L53" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="22"/>
@@ -2982,7 +2980,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>19</v>
@@ -2991,24 +2989,24 @@
         <v>21</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-      <c r="L54" s="10" t="s">
-        <v>51</v>
+      <c r="L54" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O54" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>88</v>
+        <v>110</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P54" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -3020,7 +3018,7 @@
         <v>19</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>19</v>
@@ -3033,20 +3031,20 @@
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
-      <c r="L55" s="25" t="s">
-        <v>63</v>
+      <c r="L55" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O55" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="P55" s="15" t="s">
-        <v>44</v>
+        <v>110</v>
+      </c>
+      <c r="O55" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P55" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -3058,7 +3056,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>19</v>
@@ -3072,19 +3070,19 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
       <c r="L56" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O56" s="11" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="P56" s="15" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -3096,7 +3094,7 @@
         <v>19</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>19</v>
@@ -3109,20 +3107,20 @@
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
-      <c r="L57" s="1" t="s">
-        <v>98</v>
+      <c r="L57" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O57" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P57" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O57" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -3134,7 +3132,7 @@
         <v>19</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>19</v>
@@ -3143,25 +3141,23 @@
         <v>21</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-      <c r="L58" s="21" t="s">
-        <v>47</v>
+      <c r="L58" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O58" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P58" s="16" t="s">
-        <v>40</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P58" s="14"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
@@ -3172,7 +3168,7 @@
         <v>19</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>19</v>
@@ -3185,20 +3181,20 @@
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
-      <c r="L59" s="10" t="s">
-        <v>89</v>
+      <c r="L59" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O59" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="P59" s="15" t="s">
-        <v>70</v>
+        <v>110</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P59" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -3210,7 +3206,7 @@
         <v>19</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>19</v>
@@ -3223,20 +3219,20 @@
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="25" t="s">
-        <v>63</v>
+      <c r="L60" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O60" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="P60" s="15" t="s">
-        <v>44</v>
+        <v>110</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P60" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -3248,7 +3244,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>19</v>
@@ -3257,22 +3253,24 @@
         <v>21</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O61" s="19"/>
-      <c r="P61" s="11" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3284,7 +3282,7 @@
         <v>19</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>19</v>
@@ -3297,20 +3295,20 @@
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
-      <c r="L62" s="10" t="s">
-        <v>85</v>
+      <c r="L62" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O62" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="P62" s="16" t="s">
-        <v>90</v>
+        <v>110</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -3322,7 +3320,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>19</v>
@@ -3335,19 +3333,19 @@
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-      <c r="L63" s="10" t="s">
-        <v>85</v>
+      <c r="L63" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="M63" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O63" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="N63" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O63" s="11"/>
-      <c r="P63" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="P63" s="15"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
@@ -3358,7 +3356,7 @@
         <v>19</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>19</v>
@@ -3375,13 +3373,13 @@
         <v>63</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P64" s="15" t="s">
         <v>44</v>
@@ -3396,7 +3394,7 @@
         <v>19</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>19</v>
@@ -3409,20 +3407,20 @@
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
-      <c r="L65" s="10" t="s">
-        <v>63</v>
+      <c r="L65" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O65" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="P65" s="15" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="P65" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -3434,7 +3432,7 @@
         <v>19</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>19</v>
@@ -3443,22 +3441,24 @@
         <v>21</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
-      <c r="L66" s="10" t="s">
-        <v>91</v>
+      <c r="L66" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O66" s="11"/>
-      <c r="P66" s="14" t="s">
-        <v>99</v>
+        <v>110</v>
+      </c>
+      <c r="O66" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P66" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -3470,7 +3470,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>19</v>
@@ -3479,24 +3479,24 @@
         <v>21</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="1" t="s">
-        <v>98</v>
+      <c r="L67" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O67" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P67" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -3508,7 +3508,7 @@
         <v>19</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>19</v>
@@ -3517,24 +3517,24 @@
         <v>21</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="21" t="s">
-        <v>47</v>
+      <c r="L68" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O68" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -3559,20 +3559,20 @@
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
-      <c r="L69" s="10" t="s">
-        <v>89</v>
+      <c r="L69" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P69" s="15" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -3584,7 +3584,7 @@
         <v>19</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>19</v>
@@ -3595,22 +3595,21 @@
       <c r="I70" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="25" t="s">
         <v>63</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O70" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="P70" s="15" t="s">
-        <v>44</v>
+        <v>110</v>
+      </c>
+      <c r="O70" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -3622,7 +3621,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>19</v>
@@ -3639,16 +3638,16 @@
         <v>63</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O71" s="11" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="P71" s="15" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -3660,7 +3659,7 @@
         <v>19</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>19</v>
@@ -3673,20 +3672,20 @@
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
-      <c r="L72" s="1" t="s">
-        <v>98</v>
+      <c r="L72" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O72" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P72" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O72" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -3719,10 +3718,10 @@
         <v>47</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O73" s="11" t="s">
         <v>37</v>
@@ -3754,16 +3753,16 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
       <c r="L74" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N74" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P74" s="15" t="s">
         <v>70</v>
@@ -3773,7 +3772,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D75" s="22"/>
       <c r="E75" s="5" t="s">
@@ -3789,21 +3788,21 @@
         <v>21</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P75" s="15" t="s">
         <v>65</v>
@@ -3835,13 +3834,13 @@
         <v>63</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N76" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P76" s="15" t="s">
         <v>53</v>
@@ -3872,16 +3871,16 @@
         <v>63</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O77" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P77" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -3910,13 +3909,13 @@
         <v>63</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P78" s="15" t="s">
         <v>44</v>
@@ -3948,16 +3947,16 @@
         <v>63</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O79" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P79" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -3974,10 +3973,10 @@
       <c r="K80" s="11"/>
       <c r="L80" s="25"/>
       <c r="M80" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N80" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O80" s="11"/>
       <c r="P80" s="15"/>
@@ -3986,84 +3985,66 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="M81" s="11" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="O81" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P81" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="M82" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N82" s="11" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="M83" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N83" s="11" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="M84" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N84" s="11" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M85" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N85" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/JTPS-DEVQA/VATTypes.xlsx
+++ b/TestData/JTPS-DEVQA/VATTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="114">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>scrollandclick</t>
-  </si>
-  <si>
-    <t>elm_Confirmationdialog</t>
   </si>
   <si>
     <t>Aut</t>
@@ -922,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E70" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81:M81"/>
+    <sheetView tabSelected="1" topLeftCell="H55" workbookViewId="0">
+      <selection activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,22 +984,22 @@
         <v>13</v>
       </c>
       <c r="P1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>9</v>
@@ -1094,10 +1091,10 @@
         <v>63</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>29</v>
@@ -1130,10 +1127,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="15"/>
@@ -1164,10 +1161,10 @@
         <v>63</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>29</v>
@@ -1199,10 +1196,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="15"/>
@@ -1233,10 +1230,10 @@
         <v>63</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>35</v>
@@ -1266,10 +1263,10 @@
       <c r="K8" s="11"/>
       <c r="L8" s="1"/>
       <c r="M8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>37</v>
@@ -1281,9 +1278,7 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
         <v>19</v>
@@ -1306,10 +1301,10 @@
         <v>96</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>37</v>
@@ -1344,10 +1339,10 @@
         <v>63</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O10" s="18" t="s">
         <v>42</v>
@@ -1377,10 +1372,10 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>97</v>
@@ -1415,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="16"/>
@@ -1449,10 +1444,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>37</v>
@@ -1486,10 +1481,10 @@
         <v>51</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O14" s="14" t="s">
         <v>97</v>
@@ -1524,10 +1519,10 @@
         <v>51</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O15" s="14" t="s">
         <v>97</v>
@@ -1562,10 +1557,10 @@
         <v>51</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O16" s="14" t="s">
         <v>97</v>
@@ -1600,10 +1595,10 @@
         <v>51</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O17" s="30" t="s">
         <v>97</v>
@@ -1635,13 +1630,13 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O18" s="14" t="s">
         <v>97</v>
@@ -1676,10 +1671,10 @@
         <v>51</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O19" s="14" t="s">
         <v>97</v>
@@ -1714,10 +1709,10 @@
         <v>51</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O20" s="14" t="s">
         <v>97</v>
@@ -1750,10 +1745,10 @@
         <v>51</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O21" s="14" t="s">
         <v>97</v>
@@ -1785,13 +1780,13 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O22" s="14" t="s">
         <v>97</v>
@@ -1826,10 +1821,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="16"/>
@@ -1860,10 +1855,10 @@
         <v>62</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O24" s="14" t="s">
         <v>97</v>
@@ -1898,10 +1893,10 @@
         <v>63</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O25" s="30" t="s">
         <v>97</v>
@@ -1936,10 +1931,10 @@
         <v>66</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>97</v>
@@ -1970,10 +1965,10 @@
       <c r="K27" s="11"/>
       <c r="L27" s="25"/>
       <c r="M27" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O27" s="30"/>
       <c r="P27" s="32"/>
@@ -2004,10 +1999,10 @@
         <v>63</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O28" s="14" t="s">
         <v>97</v>
@@ -2042,10 +2037,10 @@
         <v>71</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O29" s="14" t="s">
         <v>97</v>
@@ -2077,13 +2072,13 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O30" s="14" t="s">
         <v>97</v>
@@ -2118,10 +2113,10 @@
         <v>71</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O31" s="14" t="s">
         <v>97</v>
@@ -2156,10 +2151,10 @@
         <v>63</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O32" s="14" t="s">
         <v>97</v>
@@ -2194,13 +2189,13 @@
         <v>51</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P33" s="15"/>
     </row>
@@ -2230,10 +2225,10 @@
         <v>77</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="14" t="s">
         <v>97</v>
@@ -2268,10 +2263,10 @@
         <v>63</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="14" t="s">
         <v>97</v>
@@ -2281,12 +2276,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="5" t="s">
@@ -2310,10 +2301,10 @@
         <v>96</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="11" t="s">
         <v>37</v>
@@ -2323,9 +2314,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="5" t="s">
@@ -2349,10 +2338,10 @@
         <v>47</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="11" t="s">
         <v>37</v>
@@ -2384,13 +2373,13 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O38" s="14" t="s">
         <v>97</v>
@@ -2402,9 +2391,7 @@
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="22"/>
       <c r="E39" s="5" t="s">
         <v>19</v>
@@ -2427,10 +2414,10 @@
         <v>63</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O39" s="14" t="s">
         <v>97</v>
@@ -2462,13 +2449,13 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O40" s="14" t="s">
         <v>97</v>
@@ -2503,10 +2490,10 @@
         <v>81</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O41" s="14" t="s">
         <v>97</v>
@@ -2541,10 +2528,10 @@
         <v>81</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O42" s="14" t="s">
         <v>97</v>
@@ -2579,10 +2566,10 @@
         <v>63</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O43" s="14" t="s">
         <v>97</v>
@@ -2617,10 +2604,10 @@
         <v>85</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O44" s="14" t="s">
         <v>97</v>
@@ -2655,10 +2642,10 @@
         <v>63</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O45" s="14" t="s">
         <v>97</v>
@@ -2693,10 +2680,10 @@
         <v>96</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O46" s="11" t="s">
         <v>37</v>
@@ -2731,10 +2718,10 @@
         <v>47</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O47" s="11" t="s">
         <v>37</v>
@@ -2769,10 +2756,10 @@
         <v>63</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O48" s="14" t="s">
         <v>97</v>
@@ -2804,13 +2791,13 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O49" s="14" t="s">
         <v>97</v>
@@ -2845,10 +2832,10 @@
         <v>63</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O50" s="14" t="s">
         <v>97</v>
@@ -2883,10 +2870,10 @@
         <v>51</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O51" s="14" t="s">
         <v>97</v>
@@ -2921,10 +2908,10 @@
         <v>51</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O52" s="14" t="s">
         <v>97</v>
@@ -2959,10 +2946,10 @@
         <v>63</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O53" s="14" t="s">
         <v>97</v>
@@ -2997,10 +2984,10 @@
         <v>96</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>37</v>
@@ -3035,10 +3022,10 @@
         <v>47</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>37</v>
@@ -3073,10 +3060,10 @@
         <v>88</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O56" s="14" t="s">
         <v>97</v>
@@ -3111,10 +3098,10 @@
         <v>63</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O57" s="14" t="s">
         <v>97</v>
@@ -3149,10 +3136,10 @@
         <v>89</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O58" s="14" t="s">
         <v>97</v>
@@ -3185,10 +3172,10 @@
         <v>96</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O59" s="11" t="s">
         <v>37</v>
@@ -3223,10 +3210,10 @@
         <v>47</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O60" s="11" t="s">
         <v>37</v>
@@ -3261,10 +3248,10 @@
         <v>88</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O61" s="14" t="s">
         <v>97</v>
@@ -3299,10 +3286,10 @@
         <v>63</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O62" s="14" t="s">
         <v>97</v>
@@ -3337,13 +3324,13 @@
         <v>51</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P63" s="15"/>
     </row>
@@ -3373,10 +3360,10 @@
         <v>63</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O64" s="14" t="s">
         <v>97</v>
@@ -3411,10 +3398,10 @@
         <v>96</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>37</v>
@@ -3449,10 +3436,10 @@
         <v>47</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>37</v>
@@ -3487,10 +3474,10 @@
         <v>91</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O67" s="14" t="s">
         <v>97</v>
@@ -3522,13 +3509,13 @@
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
       <c r="L68" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O68" s="14" t="s">
         <v>97</v>
@@ -3563,10 +3550,10 @@
         <v>63</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O69" s="14" t="s">
         <v>97</v>
@@ -3600,10 +3587,10 @@
         <v>63</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O70" s="15" t="s">
         <v>93</v>
@@ -3638,10 +3625,10 @@
         <v>63</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O71" s="14" t="s">
         <v>97</v>
@@ -3676,10 +3663,10 @@
         <v>63</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O72" s="14" t="s">
         <v>97</v>
@@ -3689,12 +3676,8 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
       <c r="E73" s="5" t="s">
@@ -3718,10 +3701,10 @@
         <v>47</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O73" s="11" t="s">
         <v>37</v>
@@ -3756,10 +3739,10 @@
         <v>91</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N74" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O74" s="14" t="s">
         <v>97</v>
@@ -3771,9 +3754,7 @@
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="C75" s="4"/>
       <c r="D75" s="22"/>
       <c r="E75" s="5" t="s">
         <v>19</v>
@@ -3793,13 +3774,13 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
       <c r="L75" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O75" s="14" t="s">
         <v>97</v>
@@ -3834,10 +3815,10 @@
         <v>63</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N76" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O76" s="14" t="s">
         <v>97</v>
@@ -3871,10 +3852,10 @@
         <v>63</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O77" s="15" t="s">
         <v>93</v>
@@ -3884,8 +3865,6 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
       <c r="E78" s="5" t="s">
@@ -3909,10 +3888,10 @@
         <v>63</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O78" s="14" t="s">
         <v>97</v>
@@ -3922,128 +3901,52 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+      <c r="A79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="E79" s="5" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="25" t="s">
-        <v>63</v>
+        <v>94</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="O79" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="P79" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N80" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O80" s="11"/>
-      <c r="P80" s="15"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K81" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L81" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="M81" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="N81" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="O81" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P81" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="P79" s="33" t="s">
         <v>94</v>
       </c>
     </row>

--- a/TestData/JTPS-DEVQA/VATTypes.xlsx
+++ b/TestData/JTPS-DEVQA/VATTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="114">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>wnd_VATTypes</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>VAT Types</t>
   </si>
 </sst>
 </file>
@@ -975,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,8 +1070,12 @@
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
         <v>18</v>
@@ -1110,8 +1120,12 @@
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
         <v>18</v>
